--- a/data-input/currency-codes/original.xlsx
+++ b/data-input/currency-codes/original.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/Dropbox/W2ID/Population/WorldNationalAccounts/Stata_Programs/std-codes/currency-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/currency-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297C3C9-0A4E-5B44-B968-22C6F20BD3D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1040,9 +1041,6 @@
     <t>Db</t>
   </si>
   <si>
-    <t>STD</t>
-  </si>
-  <si>
     <t>Syrian pound</t>
   </si>
   <si>
@@ -1335,12 +1333,15 @@
   </si>
   <si>
     <t>symbol1</t>
+  </si>
+  <si>
+    <t>STN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1381,6 +1382,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1648,11 +1652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1665,26 +1669,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" t="s">
         <v>433</v>
-      </c>
-      <c r="B1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1692,7 +1696,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1700,7 +1704,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1732,7 +1736,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1740,7 +1744,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1748,7 +1752,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1756,7 +1760,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1764,7 +1768,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1772,7 +1776,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1780,7 +1784,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1804,7 +1808,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1812,7 +1816,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -2003,10 +2007,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -2251,7 +2255,7 @@
         <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" t="s">
         <v>86</v>
@@ -2306,7 +2310,7 @@
         <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -2400,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D75" t="s">
         <v>111</v>
@@ -2843,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3008,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3085,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3255,10 +3259,10 @@
         <v>211</v>
       </c>
       <c r="B153" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C153" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D153" t="s">
         <v>212</v>
@@ -3423,7 +3427,7 @@
         <v>246</v>
       </c>
       <c r="B168" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D168" t="s">
         <v>247</v>
@@ -3657,7 +3661,7 @@
         <v>294</v>
       </c>
       <c r="D189" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3698,10 +3702,10 @@
         <v>304</v>
       </c>
       <c r="B193" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D193" t="s">
         <v>305</v>
@@ -3924,738 +3928,738 @@
         <v>336</v>
       </c>
       <c r="D213" t="s">
-        <v>337</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B214" t="s">
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D214" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B215" t="s">
         <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>341</v>
+      </c>
+      <c r="B216" t="s">
         <v>342</v>
       </c>
-      <c r="B216" t="s">
+      <c r="D216" t="s">
         <v>343</v>
-      </c>
-      <c r="D216" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>344</v>
+      </c>
+      <c r="B217" t="s">
         <v>345</v>
       </c>
-      <c r="B217" t="s">
+      <c r="D217" t="s">
         <v>346</v>
-      </c>
-      <c r="D217" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>347</v>
+      </c>
+      <c r="B218" t="s">
         <v>348</v>
       </c>
-      <c r="B218" t="s">
+      <c r="D218" t="s">
         <v>349</v>
-      </c>
-      <c r="D218" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>350</v>
+      </c>
+      <c r="B219" t="s">
         <v>351</v>
       </c>
-      <c r="B219" t="s">
+      <c r="D219" t="s">
         <v>352</v>
-      </c>
-      <c r="D219" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B220" t="s">
+        <v>353</v>
+      </c>
+      <c r="D220" t="s">
         <v>354</v>
-      </c>
-      <c r="D220" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>355</v>
+      </c>
+      <c r="D221" t="s">
         <v>356</v>
-      </c>
-      <c r="D221" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>355</v>
+      </c>
+      <c r="D222" t="s">
         <v>356</v>
-      </c>
-      <c r="D222" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>357</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
         <v>358</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1</v>
-      </c>
-      <c r="D223" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>359</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
         <v>360</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1</v>
-      </c>
-      <c r="D224" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>363</v>
+      </c>
+      <c r="B226" t="s">
         <v>364</v>
       </c>
-      <c r="B226" t="s">
+      <c r="D226" t="s">
         <v>365</v>
-      </c>
-      <c r="D226" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>368</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
         <v>369</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1</v>
-      </c>
-      <c r="D228" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>368</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
         <v>369</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1</v>
-      </c>
-      <c r="D229" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>368</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
         <v>369</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1</v>
-      </c>
-      <c r="D230" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>368</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
         <v>369</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>368</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
         <v>369</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1</v>
-      </c>
-      <c r="D232" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>368</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
         <v>369</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1</v>
-      </c>
-      <c r="D233" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>368</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
         <v>369</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1</v>
-      </c>
-      <c r="D234" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
+        <v>368</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
         <v>369</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1</v>
-      </c>
-      <c r="D235" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
         <v>369</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1</v>
-      </c>
-      <c r="D236" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>368</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
         <v>369</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1</v>
-      </c>
-      <c r="D237" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>368</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
         <v>369</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1</v>
-      </c>
-      <c r="D238" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>368</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
         <v>369</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1</v>
-      </c>
-      <c r="D239" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>368</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
         <v>369</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D240" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>368</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
         <v>369</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1</v>
-      </c>
-      <c r="D241" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>368</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
         <v>369</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1</v>
-      </c>
-      <c r="D242" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>368</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
         <v>369</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1</v>
-      </c>
-      <c r="D243" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>370</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
         <v>371</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>372</v>
+      </c>
+      <c r="D245" t="s">
         <v>373</v>
-      </c>
-      <c r="D245" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
+        <v>374</v>
+      </c>
+      <c r="B246" t="s">
         <v>375</v>
       </c>
-      <c r="B246" t="s">
+      <c r="D246" t="s">
         <v>376</v>
-      </c>
-      <c r="D246" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>377</v>
+      </c>
+      <c r="B247" t="s">
         <v>378</v>
       </c>
-      <c r="B247" t="s">
+      <c r="D247" t="s">
         <v>379</v>
-      </c>
-      <c r="D247" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>380</v>
+      </c>
+      <c r="B248" t="s">
         <v>381</v>
       </c>
-      <c r="B248" t="s">
+      <c r="D248" t="s">
         <v>382</v>
-      </c>
-      <c r="D248" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>383</v>
+      </c>
+      <c r="B249" t="s">
         <v>384</v>
       </c>
-      <c r="B249" t="s">
+      <c r="D249" t="s">
         <v>385</v>
-      </c>
-      <c r="D249" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B250" t="s">
         <v>52</v>
       </c>
       <c r="D250" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B251" t="s">
         <v>52</v>
       </c>
       <c r="D251" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B252" t="s">
         <v>52</v>
       </c>
       <c r="D252" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B253" t="s">
         <v>52</v>
       </c>
       <c r="D253" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B254" t="s">
         <v>52</v>
       </c>
       <c r="D254" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B255" t="s">
         <v>52</v>
       </c>
       <c r="D255" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>388</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
         <v>389</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1</v>
-      </c>
-      <c r="D256" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>388</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
         <v>389</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1</v>
-      </c>
-      <c r="D257" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>388</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
         <v>389</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1</v>
-      </c>
-      <c r="D258" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>388</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
         <v>389</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1</v>
-      </c>
-      <c r="D259" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>388</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
         <v>389</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1</v>
-      </c>
-      <c r="D260" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>388</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
         <v>389</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1</v>
-      </c>
-      <c r="D261" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>388</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
         <v>389</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1</v>
-      </c>
-      <c r="D262" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>388</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
         <v>389</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1</v>
-      </c>
-      <c r="D263" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B264" t="s">
         <v>52</v>
       </c>
       <c r="D264" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B265" t="s">
         <v>52</v>
       </c>
       <c r="D265" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B266" t="s">
         <v>52</v>
       </c>
       <c r="D266" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B267" t="s">
         <v>52</v>
       </c>
       <c r="D267" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B268" t="s">
         <v>52</v>
       </c>
       <c r="D268" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B269" t="s">
         <v>52</v>
       </c>
       <c r="D269" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B270" t="s">
         <v>52</v>
       </c>
       <c r="D270" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B271" t="s">
         <v>52</v>
       </c>
       <c r="D271" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B272" t="s">
         <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B273" t="s">
         <v>52</v>
       </c>
       <c r="D273" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B274" t="s">
         <v>52</v>
       </c>
       <c r="D274" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B275" t="s">
         <v>171</v>
       </c>
       <c r="D275" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>396</v>
+      </c>
+      <c r="B276" t="s">
         <v>397</v>
       </c>
-      <c r="B276" t="s">
+      <c r="D276" t="s">
         <v>398</v>
-      </c>
-      <c r="D276" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>396</v>
+      </c>
+      <c r="B277" t="s">
         <v>397</v>
       </c>
-      <c r="B277" t="s">
+      <c r="D277" t="s">
         <v>398</v>
-      </c>
-      <c r="D277" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>396</v>
+      </c>
+      <c r="B278" t="s">
         <v>397</v>
       </c>
-      <c r="B278" t="s">
+      <c r="D278" t="s">
         <v>398</v>
-      </c>
-      <c r="D278" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>396</v>
+      </c>
+      <c r="B279" t="s">
         <v>397</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D279" t="s">
         <v>398</v>
-      </c>
-      <c r="D279" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>399</v>
+      </c>
+      <c r="B280" t="s">
         <v>400</v>
       </c>
-      <c r="B280" t="s">
+      <c r="D280" t="s">
         <v>401</v>
-      </c>
-      <c r="D280" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/data-input/currency-codes/original.xlsx
+++ b/data-input/currency-codes/original.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasblanchet/GitHub/wid-world/data-input/currency-codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amory Gethin\Documents\GitHub\wid-world\data-input\currency-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297C3C9-0A4E-5B44-B968-22C6F20BD3D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="original.csv" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1341,7 +1340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1652,14 +1651,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
@@ -1667,7 +1666,7 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>432</v>
       </c>
@@ -1681,12 +1680,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>403</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>405</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>406</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>407</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>408</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>409</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>411</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>412</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>413</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>414</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1830,12 +1829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2126,7 +2125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -2341,7 +2340,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>117</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -2751,7 +2750,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>146</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>154</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>157</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>160</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>164</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>164</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>170</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>175</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>176</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>178</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>184</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>186</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>188</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>191</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>193</v>
       </c>
@@ -3191,7 +3190,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>196</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>198</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>201</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>205</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>208</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>213</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>217</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>220</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>220</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>224</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>226</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>229</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>232</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>235</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>238</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>240</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>240</v>
       </c>
@@ -3411,7 +3410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>243</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>248</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>253</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>256</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>261</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>264</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>267</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>269</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>271</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>271</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>271</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>273</v>
       </c>
@@ -3587,7 +3586,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>276</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>279</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>282</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>285</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>288</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>290</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>293</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>295</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>298</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>301</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>304</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>306</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>306</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>306</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>306</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>308</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>310</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>313</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>315</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>317</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>320</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>322</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>322</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>324</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>324</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>324</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>326</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>329</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>331</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>333</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>335</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>337</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>339</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>341</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>344</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>347</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>350</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>419</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>355</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>355</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>357</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>359</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>361</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>363</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>366</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>368</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>368</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>368</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>368</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>368</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>368</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>368</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>368</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>368</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>368</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>368</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>368</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>368</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>368</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>368</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>370</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>372</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>374</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>377</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>380</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>383</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>386</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>386</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>386</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>386</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>386</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>386</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>388</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>388</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>388</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>388</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>388</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>388</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>388</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>388</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>390</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>390</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>390</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>390</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>390</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>390</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>390</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>390</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>392</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>392</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>392</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>394</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>396</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>396</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>396</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>396</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>399</v>
       </c>
@@ -4664,5 +4663,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>